--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dll1-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dll1-Notch2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.190862666666667</v>
+        <v>10.12586833333333</v>
       </c>
       <c r="H2">
-        <v>15.572588</v>
+        <v>30.377605</v>
       </c>
       <c r="I2">
-        <v>0.8740249884703439</v>
+        <v>0.9311967029481902</v>
       </c>
       <c r="J2">
-        <v>0.8740249884703438</v>
+        <v>0.9311967029481902</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.380049</v>
+        <v>1.492477333333333</v>
       </c>
       <c r="N2">
-        <v>100.140147</v>
+        <v>4.477432</v>
       </c>
       <c r="O2">
-        <v>0.3891462059670435</v>
+        <v>0.02769484181536182</v>
       </c>
       <c r="P2">
-        <v>0.3891462059670435</v>
+        <v>0.02769484181536182</v>
       </c>
       <c r="Q2">
-        <v>173.271250165604</v>
+        <v>15.11262896781778</v>
       </c>
       <c r="R2">
-        <v>1559.441251490436</v>
+        <v>136.01366071036</v>
       </c>
       <c r="S2">
-        <v>0.3401235081836233</v>
+        <v>0.0257893453871366</v>
       </c>
       <c r="T2">
-        <v>0.3401235081836232</v>
+        <v>0.0257893453871366</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.190862666666667</v>
+        <v>10.12586833333333</v>
       </c>
       <c r="H3">
-        <v>15.572588</v>
+        <v>30.377605</v>
       </c>
       <c r="I3">
-        <v>0.8740249884703439</v>
+        <v>0.9311967029481902</v>
       </c>
       <c r="J3">
-        <v>0.8740249884703438</v>
+        <v>0.9311967029481902</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>101.573584</v>
       </c>
       <c r="O3">
-        <v>0.3947165649764305</v>
+        <v>0.6282762845978157</v>
       </c>
       <c r="P3">
-        <v>0.3947165649764305</v>
+        <v>0.6282762845978156</v>
       </c>
       <c r="Q3">
-        <v>175.7515083683769</v>
+        <v>342.8402459095912</v>
       </c>
       <c r="R3">
-        <v>1581.763575315392</v>
+        <v>3085.562213186321</v>
       </c>
       <c r="S3">
-        <v>0.3449921411525785</v>
+        <v>0.5850488047580248</v>
       </c>
       <c r="T3">
-        <v>0.3449921411525784</v>
+        <v>0.5850488047580247</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.190862666666667</v>
+        <v>10.12586833333333</v>
       </c>
       <c r="H4">
-        <v>15.572588</v>
+        <v>30.377605</v>
       </c>
       <c r="I4">
-        <v>0.8740249884703439</v>
+        <v>0.9311967029481902</v>
       </c>
       <c r="J4">
-        <v>0.8740249884703438</v>
+        <v>0.9311967029481902</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>18.53974466666667</v>
       </c>
       <c r="N4">
-        <v>55.61923400000001</v>
+        <v>55.619234</v>
       </c>
       <c r="O4">
-        <v>0.2161372290565261</v>
+        <v>0.3440288735868225</v>
       </c>
       <c r="P4">
-        <v>0.2161372290565261</v>
+        <v>0.3440288735868225</v>
       </c>
       <c r="Q4">
-        <v>96.23726843973245</v>
+        <v>187.7310134282856</v>
       </c>
       <c r="R4">
-        <v>866.1354159575922</v>
+        <v>1689.57912085457</v>
       </c>
       <c r="S4">
-        <v>0.1889093391341423</v>
+        <v>0.3203585528030289</v>
       </c>
       <c r="T4">
-        <v>0.1889093391341423</v>
+        <v>0.3203585528030289</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.302988</v>
       </c>
       <c r="I5">
-        <v>0.0170054639091879</v>
+        <v>0.009287810103293732</v>
       </c>
       <c r="J5">
-        <v>0.0170054639091879</v>
+        <v>0.009287810103293733</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.380049</v>
+        <v>1.492477333333333</v>
       </c>
       <c r="N5">
-        <v>100.140147</v>
+        <v>4.477432</v>
       </c>
       <c r="O5">
-        <v>0.3891462059670435</v>
+        <v>0.02769484181536182</v>
       </c>
       <c r="P5">
-        <v>0.3891462059670435</v>
+        <v>0.02769484181536182</v>
       </c>
       <c r="Q5">
-        <v>3.371251428804</v>
+        <v>0.1507342407573333</v>
       </c>
       <c r="R5">
-        <v>30.341262859236</v>
+        <v>1.356608166816</v>
       </c>
       <c r="S5">
-        <v>0.00661761176096996</v>
+        <v>0.0002572244316218393</v>
       </c>
       <c r="T5">
-        <v>0.006617611760969959</v>
+        <v>0.0002572244316218393</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.302988</v>
       </c>
       <c r="I6">
-        <v>0.0170054639091879</v>
+        <v>0.009287810103293732</v>
       </c>
       <c r="J6">
-        <v>0.0170054639091879</v>
+        <v>0.009287810103293733</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>101.573584</v>
       </c>
       <c r="O6">
-        <v>0.3947165649764305</v>
+        <v>0.6282762845978157</v>
       </c>
       <c r="P6">
-        <v>0.3947165649764305</v>
+        <v>0.6282762845978156</v>
       </c>
       <c r="Q6">
         <v>3.419508563221334</v>
       </c>
       <c r="R6">
-        <v>30.77557706899201</v>
+        <v>30.775577068992</v>
       </c>
       <c r="S6">
-        <v>0.00671233830006531</v>
+        <v>0.005835310823747441</v>
       </c>
       <c r="T6">
-        <v>0.006712338300065309</v>
+        <v>0.005835310823747441</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.302988</v>
       </c>
       <c r="I7">
-        <v>0.0170054639091879</v>
+        <v>0.009287810103293732</v>
       </c>
       <c r="J7">
-        <v>0.0170054639091879</v>
+        <v>0.009287810103293733</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,25 +865,25 @@
         <v>18.53974466666667</v>
       </c>
       <c r="N7">
-        <v>55.61923400000001</v>
+        <v>55.619234</v>
       </c>
       <c r="O7">
-        <v>0.2161372290565261</v>
+        <v>0.3440288735868225</v>
       </c>
       <c r="P7">
-        <v>0.2161372290565261</v>
+        <v>0.3440288735868225</v>
       </c>
       <c r="Q7">
-        <v>1.872440052354667</v>
+        <v>1.872440052354666</v>
       </c>
       <c r="R7">
         <v>16.851960471192</v>
       </c>
       <c r="S7">
-        <v>0.003675513848152633</v>
+        <v>0.003195274847924453</v>
       </c>
       <c r="T7">
-        <v>0.003675513848152632</v>
+        <v>0.003195274847924453</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>1.941521</v>
       </c>
       <c r="I8">
-        <v>0.1089695476204681</v>
+        <v>0.05951548694851595</v>
       </c>
       <c r="J8">
-        <v>0.1089695476204681</v>
+        <v>0.05951548694851596</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.380049</v>
+        <v>1.492477333333333</v>
       </c>
       <c r="N8">
-        <v>100.140147</v>
+        <v>4.477432</v>
       </c>
       <c r="O8">
-        <v>0.3891462059670435</v>
+        <v>0.02769484181536182</v>
       </c>
       <c r="P8">
-        <v>0.3891462059670435</v>
+        <v>0.02769484181536182</v>
       </c>
       <c r="Q8">
-        <v>21.602688704843</v>
+        <v>0.9658920282302222</v>
       </c>
       <c r="R8">
-        <v>194.424198343587</v>
+        <v>8.693028254072001</v>
       </c>
       <c r="S8">
-        <v>0.04240508602245025</v>
+        <v>0.001648271996603381</v>
       </c>
       <c r="T8">
-        <v>0.04240508602245024</v>
+        <v>0.001648271996603381</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>1.941521</v>
       </c>
       <c r="I9">
-        <v>0.1089695476204681</v>
+        <v>0.05951548694851595</v>
       </c>
       <c r="J9">
-        <v>0.1089695476204681</v>
+        <v>0.05951548694851596</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>101.573584</v>
       </c>
       <c r="O9">
-        <v>0.3947165649764305</v>
+        <v>0.6282762845978157</v>
       </c>
       <c r="P9">
-        <v>0.3947165649764305</v>
+        <v>0.6282762845978156</v>
       </c>
       <c r="Q9">
         <v>21.91191626458489</v>
@@ -1004,10 +1004,10 @@
         <v>197.207246381264</v>
       </c>
       <c r="S9">
-        <v>0.04301208552378676</v>
+        <v>0.03739216901604339</v>
       </c>
       <c r="T9">
-        <v>0.04301208552378673</v>
+        <v>0.03739216901604339</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>1.941521</v>
       </c>
       <c r="I10">
-        <v>0.1089695476204681</v>
+        <v>0.05951548694851595</v>
       </c>
       <c r="J10">
-        <v>0.1089695476204681</v>
+        <v>0.05951548694851596</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,13 +1051,13 @@
         <v>18.53974466666667</v>
       </c>
       <c r="N10">
-        <v>55.61923400000001</v>
+        <v>55.619234</v>
       </c>
       <c r="O10">
-        <v>0.2161372290565261</v>
+        <v>0.3440288735868225</v>
       </c>
       <c r="P10">
-        <v>0.2161372290565261</v>
+        <v>0.3440288735868225</v>
       </c>
       <c r="Q10">
         <v>11.99843453499044</v>
@@ -1066,10 +1066,10 @@
         <v>107.985910814914</v>
       </c>
       <c r="S10">
-        <v>0.02355237607423115</v>
+        <v>0.02047504593586918</v>
       </c>
       <c r="T10">
-        <v>0.02355237607423114</v>
+        <v>0.02047504593586918</v>
       </c>
     </row>
   </sheetData>
